--- a/tests/login-form.xlsx
+++ b/tests/login-form.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20390"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Prajjwal\Chat-App\tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\open source\Chat-App\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB1C8F4-0AC0-44CD-B6FC-20B6F128C103}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="33">
   <si>
     <t>Test case ID</t>
   </si>
@@ -53,27 +54,92 @@
     <t>TSA01</t>
   </si>
   <si>
-    <t>Test The login Window</t>
-  </si>
-  <si>
-    <t>User Id</t>
-  </si>
-  <si>
     <t>Blank</t>
   </si>
   <si>
-    <t>Error Window</t>
-  </si>
-  <si>
     <t>Fail</t>
+  </si>
+  <si>
+    <t>TSA02</t>
+  </si>
+  <si>
+    <t>TSA03</t>
+  </si>
+  <si>
+    <t>TSA04</t>
+  </si>
+  <si>
+    <t>TSA05</t>
+  </si>
+  <si>
+    <t>TSA06</t>
+  </si>
+  <si>
+    <t>TSA07</t>
+  </si>
+  <si>
+    <t>TSA08</t>
+  </si>
+  <si>
+    <t>TSA09</t>
+  </si>
+  <si>
+    <t>TSA10</t>
+  </si>
+  <si>
+    <t>TSA11</t>
+  </si>
+  <si>
+    <t>TSA12</t>
+  </si>
+  <si>
+    <t>TSA13</t>
+  </si>
+  <si>
+    <t>TSA14</t>
+  </si>
+  <si>
+    <t>TSA15</t>
+  </si>
+  <si>
+    <t>Accepted</t>
+  </si>
+  <si>
+    <t>Test The login form</t>
+  </si>
+  <si>
+    <t>User Name</t>
+  </si>
+  <si>
+    <t>with space</t>
+  </si>
+  <si>
+    <t>start with num</t>
+  </si>
+  <si>
+    <t>Error form</t>
+  </si>
+  <si>
+    <t>start special char</t>
+  </si>
+  <si>
+    <t>Only alphabet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -125,12 +191,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,24 +477,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -438,177 +505,279 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -617,7 +786,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -626,7 +795,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -635,7 +804,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -644,7 +813,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -653,7 +822,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -667,5 +836,6 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tests/login-form.xlsx
+++ b/tests/login-form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\open source\Chat-App\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB1C8F4-0AC0-44CD-B6FC-20B6F128C103}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD528DA-BA8A-4D7F-9468-01B5B307D61C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="63">
   <si>
     <t>Test case ID</t>
   </si>
@@ -33,24 +33,9 @@
     <t>Test Description</t>
   </si>
   <si>
-    <t>test Procedure</t>
-  </si>
-  <si>
-    <t>test input</t>
-  </si>
-  <si>
-    <t>Expected result</t>
-  </si>
-  <si>
-    <t>Actual result</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
-    <t>Test Report on Login Window</t>
-  </si>
-  <si>
     <t>TSA01</t>
   </si>
   <si>
@@ -114,23 +99,128 @@
     <t>with space</t>
   </si>
   <si>
-    <t>start with num</t>
-  </si>
-  <si>
     <t>Error form</t>
   </si>
   <si>
-    <t>start special char</t>
-  </si>
-  <si>
     <t>Only alphabet</t>
+  </si>
+  <si>
+    <t>only numeric</t>
+  </si>
+  <si>
+    <t>only special character</t>
+  </si>
+  <si>
+    <t>start with special character</t>
+  </si>
+  <si>
+    <t>not case sensitive</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>TSA16</t>
+  </si>
+  <si>
+    <t>TSA17</t>
+  </si>
+  <si>
+    <t>username details remains on screen</t>
+  </si>
+  <si>
+    <t>password remain on screen</t>
+  </si>
+  <si>
+    <t>length is not defined</t>
+  </si>
+  <si>
+    <t>blank</t>
+  </si>
+  <si>
+    <t>TSA18</t>
+  </si>
+  <si>
+    <t>TSA19</t>
+  </si>
+  <si>
+    <t>TSA20</t>
+  </si>
+  <si>
+    <t>TSA21</t>
+  </si>
+  <si>
+    <t>TSA22</t>
+  </si>
+  <si>
+    <t>TSA23</t>
+  </si>
+  <si>
+    <t>TSA24</t>
+  </si>
+  <si>
+    <t>TSA25</t>
+  </si>
+  <si>
+    <t>can take spaces</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Only alphabet</t>
+  </si>
+  <si>
+    <t>only specialcharacter</t>
+  </si>
+  <si>
+    <t>incorrect</t>
+  </si>
+  <si>
+    <t>type not defined</t>
+  </si>
+  <si>
+    <t>I'm not robot</t>
+  </si>
+  <si>
+    <t>check box tick</t>
+  </si>
+  <si>
+    <t>checkbox not tick</t>
+  </si>
+  <si>
+    <t>username can be empty</t>
+  </si>
+  <si>
+    <t>password can be empty</t>
+  </si>
+  <si>
+    <t>both can be empty</t>
+  </si>
+  <si>
+    <t>start with num + alphabet</t>
+  </si>
+  <si>
+    <t>Input test</t>
+  </si>
+  <si>
+    <t>Test Report Login Window</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Test Procedure</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Condition: Password should be must Alpha+Numeric</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +236,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -155,7 +262,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -179,8 +286,38 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -191,13 +328,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -489,352 +636,639 @@
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" customWidth="1"/>
     <col min="3" max="3" width="20.44140625" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.88671875" customWidth="1"/>
     <col min="6" max="6" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="1" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="F8" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C30" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
+  <conditionalFormatting sqref="B30">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3Symbols">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
